--- a/Documentation/CapstoneTimeline.xlsx
+++ b/Documentation/CapstoneTimeline.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelnathan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17A00DCF-7BCC-4B45-B760-F21C5823E258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A06CC02-E2A9-A349-9DB3-12B5EAAB4436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{B7312806-6A61-4E07-9F80-D4889DE395B5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" xr2:uid="{B7312806-6A61-4E07-9F80-D4889DE395B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$3:$B$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3:$B$15</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Team Formation</t>
   </si>
@@ -78,18 +74,6 @@
     <t>Progress Report</t>
   </si>
   <si>
-    <t>Final Presentation</t>
-  </si>
-  <si>
-    <t>Set Date</t>
-  </si>
-  <si>
-    <t>Date Begin</t>
-  </si>
-  <si>
-    <t>Date End</t>
-  </si>
-  <si>
     <t>Detail Design Complete</t>
   </si>
   <si>
@@ -102,22 +86,46 @@
     <t>Experiementation Complete</t>
   </si>
   <si>
-    <t>Final Presentation Practice</t>
-  </si>
-  <si>
-    <t>Improvements Complete</t>
-  </si>
-  <si>
-    <t>Poster Complete</t>
-  </si>
-  <si>
-    <t>Final Documentation Complete</t>
-  </si>
-  <si>
-    <t>Capstone I (with specific dates)</t>
-  </si>
-  <si>
-    <t>Capstone  II (with rough date range based on previous year)</t>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Capstone I - Final Presentation</t>
+  </si>
+  <si>
+    <t>Capstone II - Final Presentation</t>
+  </si>
+  <si>
+    <t>Detail Design and Planning</t>
+  </si>
+  <si>
+    <t>Capstone Timeline</t>
+  </si>
+  <si>
+    <t>Deadlines</t>
+  </si>
+  <si>
+    <t>Signoff</t>
+  </si>
+  <si>
+    <t>Ordering</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Experimentation</t>
+  </si>
+  <si>
+    <t>Documentation, Poster, Presentation</t>
   </si>
 </sst>
 </file>
@@ -141,12 +149,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,13 +181,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,6 +212,1132 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Capstone</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> I &amp; II Timeline</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>StartDate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Project Proposal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Project Prosal Revisions</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Conceptual Design and Planning </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Detail Design and Planning</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Signoff</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ordering</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Programming</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Build</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Experimentation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Documentation, Poster, Presentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E446-1546-B922-9F6B4C90B236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Duration</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Project Proposal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Project Prosal Revisions</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Conceptual Design and Planning </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Detail Design and Planning</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Signoff</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ordering</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Programming</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Build</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Experimentation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Documentation, Poster, Presentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E446-1546-B922-9F6B4C90B236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="641630191"/>
+        <c:axId val="640898047"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="641630191"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640898047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="640898047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641630191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2151104</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130951</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3139225" cy="1500732"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A838FAF-6E01-7946-88C3-AF9912F7E790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2151104" y="2728030"/>
+          <a:ext cx="3139225" cy="1500732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>All date</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>red</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> are +/- a week because</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>we do not know the exact timeline for</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>Capstone II</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158859</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>679250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61951</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3109AE87-AC10-BC4D-8656-EA2C979BA339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC09B1FA-CECC-4035-B171-7CDD1AF55ECD}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -493,246 +1648,341 @@
     <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>DATE(YEAR(C3),MONTH(C3),DAY(C3)-14)</f>
+        <v>44815</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44829</v>
+      </c>
+      <c r="D3">
+        <f>C3-B3</f>
+        <v>14</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>44802</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <f>DATE(YEAR(C4),MONTH(C4),DAY(C4)-7)</f>
+        <v>44839</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44846</v>
+      </c>
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12">
+        <v>44839</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <f>C3</f>
+        <v>44829</v>
+      </c>
+      <c r="C5" s="1">
+        <f>DATE(YEAR(B5),MONTH(B5),DAY(B5)+14)</f>
+        <v>44843</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>44850</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <f>C5</f>
+        <v>44843</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44948</v>
+      </c>
+      <c r="D6">
+        <f>C6-B6</f>
+        <v>105</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="13">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="1">
+        <f>DATE(YEAR(B6),MONTH(B6),DAY(B6)+4)</f>
+        <v>44847</v>
+      </c>
+      <c r="C7" s="5">
+        <f>C6</f>
+        <v>44948</v>
+      </c>
+      <c r="D7">
+        <f>C7-B7</f>
+        <v>101</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="13">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <f>DATE(YEAR(B6), MONTH(B6), DAY(B6)+14)</f>
+        <v>44857</v>
+      </c>
+      <c r="C8" s="5">
+        <f>H13</f>
+        <v>44955</v>
+      </c>
+      <c r="D8">
+        <f>C8-B8</f>
+        <v>98</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="13">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <f>DATE(YEAR(B6),MONTH(B6),DAY(B6)+38)</f>
+        <v>44881</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45006</v>
+      </c>
+      <c r="D9">
+        <f>C9-B9</f>
+        <v>125</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="13">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8">
+        <f>DATE(YEAR(H9),MONTH(H9),DAY(H9)+7)</f>
+        <v>44896</v>
+      </c>
+      <c r="C10" s="5">
+        <f>H14</f>
+        <v>44986</v>
+      </c>
+      <c r="D10">
+        <f>C10-B10</f>
+        <v>90</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="13">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5">
+        <f>H14</f>
+        <v>44986</v>
+      </c>
+      <c r="C11" s="5">
+        <f>H15</f>
+        <v>45007</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D12" si="0">C11-B11</f>
+        <v>21</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="13">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5">
+        <f>H15</f>
+        <v>45007</v>
+      </c>
+      <c r="C12" s="5">
+        <f>H16</f>
+        <v>45044</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="12">
+        <v>44948</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="H13" s="12">
+        <v>44955</v>
+      </c>
+      <c r="J13" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44797</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="G14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="12">
+        <v>44986</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44802</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="G15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="12">
+        <v>45007</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44829</v>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7"/>
+      <c r="G16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="12">
+        <v>45044</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44839</v>
-      </c>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44846</v>
-      </c>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44850</v>
-      </c>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44906</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44576</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44583</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44590</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44614</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <f xml:space="preserve"> DATE(YEAR(B19),MONTH(B19),DAY(B19)+21)</f>
-        <v>44635</v>
-      </c>
-      <c r="C20" s="1">
-        <f xml:space="preserve"> DATE(YEAR(C19),MONTH(C19),DAY(C19)+21)</f>
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4">
-        <f t="shared" ref="B21:B25" si="0" xml:space="preserve"> DATE(YEAR(B20),MONTH(B20),DAY(B20)+21)</f>
-        <v>44656</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" ref="C21:C25" si="1" xml:space="preserve"> DATE(YEAR(C20),MONTH(C20),DAY(C20)+21)</f>
-        <v>44663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4">
-        <f xml:space="preserve"> DATE(YEAR(B21),MONTH(B21),DAY(B21)+6)</f>
-        <v>44662</v>
-      </c>
-      <c r="C22" s="4">
-        <f xml:space="preserve"> DATE(YEAR(C21),MONTH(C21),DAY(C21)+6)</f>
-        <v>44669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4">
-        <f xml:space="preserve"> DATE(YEAR(B22),MONTH(B22),DAY(B22)+3)</f>
-        <v>44665</v>
-      </c>
-      <c r="C23" s="4">
-        <f xml:space="preserve"> DATE(YEAR(C22),MONTH(C22),DAY(C22)+3)</f>
-        <v>44672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4">
-        <f xml:space="preserve"> DATE(YEAR(B23),MONTH(B23),DAY(B23)+4)</f>
-        <v>44669</v>
-      </c>
-      <c r="C24" s="4">
-        <f xml:space="preserve"> DATE(YEAR(C23),MONTH(C23),DAY(C23)+4)</f>
-        <v>44676</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="4">
-        <f xml:space="preserve"> DATE(YEAR(B24),MONTH(B24),DAY(B24)+1)</f>
-        <v>44670</v>
-      </c>
-      <c r="C25" s="4">
-        <f xml:space="preserve"> DATE(YEAR(C24),MONTH(C24),DAY(C24)+1)</f>
-        <v>44677</v>
-      </c>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
@@ -740,5 +1990,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentation/CapstoneTimeline.xlsx
+++ b/Documentation/CapstoneTimeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelnathan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\github\CapstoneRepo\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A06CC02-E2A9-A349-9DB3-12B5EAAB4436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEB8C8-B63D-4BAB-A92F-ADC4115F0422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" xr2:uid="{B7312806-6A61-4E07-9F80-D4889DE395B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7312806-6A61-4E07-9F80-D4889DE395B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Team Formation</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Documentation, Poster, Presentation</t>
+  </si>
+  <si>
+    <t>Member Assignment</t>
+  </si>
+  <si>
+    <t>Entire Team</t>
+  </si>
+  <si>
+    <t>Enitire Team</t>
   </si>
 </sst>
 </file>
@@ -350,7 +359,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44815</c:v>
@@ -399,7 +408,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -407,6 +419,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$12</c:f>
@@ -487,6 +557,46 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E446-1546-B922-9F6B4C90B236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Member Assignment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-504F-4B6D-80A7-7347BB93F587}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -575,7 +685,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -610,6 +720,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1637,22 +1786,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC09B1FA-CECC-4035-B171-7CDD1AF55ECD}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +1811,7 @@
       </c>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -1674,6 +1824,9 @@
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1834,7 @@
         <v>44797</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1693,8 +1846,11 @@
         <v>44829</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
         <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>3</v>
@@ -1704,7 +1860,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1716,8 +1872,11 @@
         <v>44846</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>4</v>
@@ -1727,7 +1886,7 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1740,8 +1899,11 @@
         <v>44843</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>6</v>
@@ -1751,7 +1913,7 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1763,7 +1925,7 @@
         <v>44948</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -1773,7 +1935,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1786,7 +1948,7 @@
         <v>44948</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -1796,7 +1958,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1971,7 @@
         <v>44955</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -1819,7 +1981,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1831,7 +1993,7 @@
         <v>45006</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -1841,7 +2003,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1854,7 +2016,7 @@
         <v>44986</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -1864,7 +2026,7 @@
         <v>44906</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1877,7 +2039,7 @@
         <v>45007</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D12" si="0">C11-B11</f>
+        <f t="shared" ref="D11:D12" si="1">C11-B11</f>
         <v>21</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -1887,7 +2049,7 @@
         <v>44906</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1900,7 +2062,7 @@
         <v>45044</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -1911,7 +2073,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
@@ -1924,7 +2086,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
@@ -1936,7 +2098,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
@@ -1948,7 +2110,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1960,29 +2122,39 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">

--- a/Documentation/CapstoneTimeline.xlsx
+++ b/Documentation/CapstoneTimeline.xlsx
@@ -8,12 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\github\CapstoneRepo\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEB8C8-B63D-4BAB-A92F-ADC4115F0422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE8B73-450E-4E4B-BA4D-41FD712FA497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7312806-6A61-4E07-9F80-D4889DE395B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="DD-Chassis" sheetId="14" r:id="rId2"/>
+    <sheet name="DD-Animal Feeding" sheetId="13" r:id="rId3"/>
+    <sheet name="DD-Location Det. and Track" sheetId="2" r:id="rId4"/>
+    <sheet name="DD-Object Detection" sheetId="3" r:id="rId5"/>
+    <sheet name="DD-Object Manipulation" sheetId="4" r:id="rId6"/>
+    <sheet name="DD-Locomotion" sheetId="5" r:id="rId7"/>
+    <sheet name="DD-Fireworks Display" sheetId="6" r:id="rId8"/>
+    <sheet name="DD-Power" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>Team Formation</t>
   </si>
@@ -131,17 +139,137 @@
     <t>Member Assignment</t>
   </si>
   <si>
-    <t>Entire Team</t>
-  </si>
-  <si>
     <t>Enitire Team</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Gantt Chart</t>
+  </si>
+  <si>
+    <t>Assignees</t>
+  </si>
+  <si>
+    <t>Nathan Gardner</t>
+  </si>
+  <si>
+    <t>Object Manipulation</t>
+  </si>
+  <si>
+    <t>Fatima Al-heji</t>
+  </si>
+  <si>
+    <t>System Diagram</t>
+  </si>
+  <si>
+    <t>Formalated Problem Statement</t>
+  </si>
+  <si>
+    <t>Fatima Al-heji, Nathan Gardner</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Madison Kelly</t>
+  </si>
+  <si>
+    <t>Shall Statements</t>
+  </si>
+  <si>
+    <t>Ethical, Professional, and Standards Considerations</t>
+  </si>
+  <si>
+    <t>Power System</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Locomotion</t>
+  </si>
+  <si>
+    <t>Vision System</t>
+  </si>
+  <si>
+    <t>Microbot</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>System Diagram Design</t>
+  </si>
+  <si>
+    <t>Timeline and Work Breakdown</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mark Beech, Luke Mcgill, Nathan Gardner</t>
+  </si>
+  <si>
+    <t>Luke Mcgill</t>
+  </si>
+  <si>
+    <t>Mark Beech</t>
+  </si>
+  <si>
+    <t>LucidChart Diagrams</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>Location Determination and Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Detection </t>
+  </si>
+  <si>
+    <t>Fireworks Display</t>
+  </si>
+  <si>
+    <t>Animal Feeding</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Mechanical Team</t>
+  </si>
+  <si>
+    <t>Mechanical Team, Fatima Al-heji, Nathan Gardner, Luke Mcgill</t>
+  </si>
+  <si>
+    <t>Madison Kelly, Mark Beech</t>
+  </si>
+  <si>
+    <t>Fatima Al-heji, Nathan Gardner, Luke Mcgill</t>
+  </si>
+  <si>
+    <t>Fatima Al-heji, Nathan Gardner, Mark Beech</t>
+  </si>
+  <si>
+    <t>DETAILED WORK BREAKDOWN</t>
+  </si>
+  <si>
+    <t>Subsystems Design</t>
+  </si>
+  <si>
+    <t>\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +285,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +346,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,11 +361,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,8 +444,21 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -319,7 +570,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:f>Main!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -357,7 +608,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:f>Main!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="10"/>
@@ -479,7 +730,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:f>Main!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -517,7 +768,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:f>Main!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -578,7 +829,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$12</c:f>
+              <c:f>Main!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1361,8 +1612,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2151104</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>130951</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3139225" cy="1500732"/>
@@ -1379,7 +1630,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2151104" y="2728030"/>
+          <a:off x="0" y="2508391"/>
           <a:ext cx="3139225" cy="1500732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1460,7 +1711,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>679250</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>61951</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1786,17 +2037,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC09B1FA-CECC-4035-B171-7CDD1AF55ECD}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="1" max="2" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.33203125" bestFit="1" customWidth="1"/>
@@ -1849,8 +2100,8 @@
         <f t="shared" ref="D3:D10" si="0">C3-B3</f>
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
+      <c r="E3" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>3</v>
@@ -1875,8 +2126,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
+      <c r="E4" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>4</v>
@@ -1903,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>6</v>
@@ -2146,22 +2397,383 @@
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
         <v>8</v>
       </c>
+      <c r="C28" s="18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="22"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="22"/>
+    </row>
+    <row r="48" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="17" t="s">
         <v>22</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="22"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="22"/>
+    </row>
+    <row r="62" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
     <sortCondition ref="B2:B15" customList="Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B53" location="'DD-Location Det. and Track'!A1" display="Location Determination and Tracking" xr:uid="{49393598-8E01-4F0C-98F8-F3556F9E94F1}"/>
+    <hyperlink ref="B54" location="'DD-Object Detection'!A1" display="Object Detection " xr:uid="{0D9A1E34-F98F-46C4-B585-AD02F0786C59}"/>
+    <hyperlink ref="B55" location="'DD-Object Manipulation'!A1" display="Object Manipulation" xr:uid="{B61D4DCF-F653-4940-B85B-EF5BCC47C04E}"/>
+    <hyperlink ref="B56" location="'DD-Locomotion'!A1" display="Locomotion" xr:uid="{91B0B86C-16DD-45B4-BC58-57092451A29E}"/>
+    <hyperlink ref="B57" location="'DD-Fireworks Display'!A1" display="Fireworks Display" xr:uid="{945F8B7E-50D4-4ED3-AD91-EDAC8A0877A4}"/>
+    <hyperlink ref="B59" location="'DD-Power'!A1" display="Power" xr:uid="{F1ABB304-7803-4CCA-AA12-2E46549E173D}"/>
+    <hyperlink ref="B58" location="'DD-Animal Feeding'!A1" display="Animal Feeding" xr:uid="{F2F8E6E8-8B2B-4009-89DB-8B26A3DD7EFB}"/>
+    <hyperlink ref="B52" location="'DD-Chassis'!A1" display="Chassis" xr:uid="{F0F55870-F599-4F19-ADF6-BC6EBBD97A65}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA56416-B17F-4112-BC20-B5823E956BA1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA374104-B7EE-452B-9C8A-8C1A18611CDB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B2242-6FDB-49C7-A935-72C7FD1B5A30}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930E9B9D-CE5B-422D-B24E-0ED953A1791F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7146979-0B03-48AF-A691-453D6A93343E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2115B80-C0E3-4B3F-917E-7436F3546F52}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E387DAD6-0187-40FA-BC16-0474883E7731}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7003D715-FD8D-4FAB-B335-0AEF63E3181D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/CapstoneTimeline.xlsx
+++ b/Documentation/CapstoneTimeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\github\CapstoneRepo\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke1\Documents\GitHub\CapstoneRepo\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE8B73-450E-4E4B-BA4D-41FD712FA497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60DC155-5E84-4E79-9412-4B92D238573C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7312806-6A61-4E07-9F80-D4889DE395B5}"/>
   </bookViews>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>Team Formation</t>
   </si>
@@ -263,6 +261,24 @@
   </si>
   <si>
     <t>\</t>
+  </si>
+  <si>
+    <t>Locomotion Subsystem: motor driver</t>
+  </si>
+  <si>
+    <t>Locomotion Subsystem: motor</t>
+  </si>
+  <si>
+    <t>Locomotion Subsystem: wheels</t>
+  </si>
+  <si>
+    <t>Controller Subsystem:</t>
+  </si>
+  <si>
+    <t>Power Subsystem:</t>
+  </si>
+  <si>
+    <t>Vision Subsystem:</t>
   </si>
 </sst>
 </file>
@@ -570,9 +586,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$A$3:$A$12</c:f>
+              <c:f>Main!$A$3:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -583,24 +599,42 @@
                   <c:v>Conceptual Design and Planning </c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Locomotion Subsystem: motor driver</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Locomotion Subsystem: motor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Locomotion Subsystem: wheels</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Controller Subsystem:</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Power Subsystem:</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vision Subsystem:</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Detail Design and Planning</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>Signoff</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>Ordering</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>Programming</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>Build</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>Experimentation</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>Documentation, Poster, Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -608,10 +642,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$B$3:$B$12</c:f>
+              <c:f>Main!$B$3:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44815</c:v>
                 </c:pt>
@@ -622,24 +656,33 @@
                   <c:v>44829</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>44843</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>44847</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>44857</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>44881</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>44896</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>44986</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>45007</c:v>
                 </c:pt>
               </c:numCache>
@@ -730,9 +773,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$A$3:$A$12</c:f>
+              <c:f>Main!$A$3:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -743,24 +786,42 @@
                   <c:v>Conceptual Design and Planning </c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Locomotion Subsystem: motor driver</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Locomotion Subsystem: motor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Locomotion Subsystem: wheels</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Controller Subsystem:</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Power Subsystem:</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vision Subsystem:</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Detail Design and Planning</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>Signoff</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>Ordering</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>Programming</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>Build</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>Experimentation</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>Documentation, Poster, Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -768,10 +829,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$3:$D$12</c:f>
+              <c:f>Main!$D$3:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -781,25 +842,25 @@
                 <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
@@ -829,10 +890,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Main!$E$3:$E$12</c:f>
+              <c:f>Main!$E$3:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1613,7 +1674,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>130951</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3139225" cy="1500732"/>
@@ -2037,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC09B1FA-CECC-4035-B171-7CDD1AF55ECD}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2097,7 +2158,7 @@
         <v>44829</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D18" si="0">C3-B3</f>
         <v>14</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -2166,507 +2227,569 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44860</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44838</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="13">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44860</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44838</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="13">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44860</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44838</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="13">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="13">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="13">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="G11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="13">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="G12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="12">
+        <v>44948</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="G13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12">
+        <v>44955</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B14" s="1">
         <f>C5</f>
         <v>44843</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C14" s="5">
         <v>44948</v>
       </c>
-      <c r="D6">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="13">
-        <v>44853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="12">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
-        <f>DATE(YEAR(B6),MONTH(B6),DAY(B6)+4)</f>
+      <c r="B15" s="1">
+        <f>DATE(YEAR(B14),MONTH(B14),DAY(B14)+4)</f>
         <v>44847</v>
       </c>
-      <c r="C7" s="5">
-        <f>C6</f>
+      <c r="C15" s="5">
+        <f>C14</f>
         <v>44948</v>
       </c>
-      <c r="D7">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="13">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="12">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1">
-        <f>DATE(YEAR(B6), MONTH(B6), DAY(B6)+14)</f>
+      <c r="B16" s="1">
+        <f>DATE(YEAR(B14), MONTH(B14), DAY(B14)+14)</f>
         <v>44857</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C16" s="5">
         <f>H13</f>
         <v>44955</v>
       </c>
-      <c r="D8">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="13">
-        <v>44882</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="12">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1">
-        <f>DATE(YEAR(B6),MONTH(B6),DAY(B6)+38)</f>
+      <c r="B17" s="1">
+        <f>DATE(YEAR(B14),MONTH(B14),DAY(B14)+38)</f>
         <v>44881</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C17" s="5">
         <v>45006</v>
       </c>
-      <c r="D9">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="13">
-        <v>44889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B18" s="8">
         <f>DATE(YEAR(H9),MONTH(H9),DAY(H9)+7)</f>
         <v>44896</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C18" s="5">
         <f>H14</f>
         <v>44986</v>
       </c>
-      <c r="D10">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="13">
-        <v>44906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B19" s="5">
         <f>H14</f>
         <v>44986</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C19" s="5">
         <f>H15</f>
         <v>45007</v>
       </c>
-      <c r="D11">
-        <f t="shared" ref="D11:D12" si="1">C11-B11</f>
+      <c r="D19">
+        <f t="shared" ref="D19:D20" si="1">C19-B19</f>
         <v>21</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="13">
-        <v>44906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B20" s="5">
         <f>H15</f>
         <v>45007</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C20" s="5">
         <f>H16</f>
         <v>45044</v>
       </c>
-      <c r="D12">
+      <c r="D20">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12">
-        <v>44948</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="G13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="12">
-        <v>44955</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="G14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="12">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="G15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="12">
-        <v>45007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="G16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="12">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+    <row r="35" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
+      <c r="C37" s="20"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C38" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="22"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="22"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C48" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="21" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C49" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="21" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C50" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C52" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C53" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="19" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="22"/>
-    </row>
-    <row r="48" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="24" t="s">
+      <c r="C55" s="22"/>
+    </row>
+    <row r="56" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C56" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="17" t="s">
+    <row r="57" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C58" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="19" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="22"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="26" t="s">
+      <c r="C59" s="22"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C60" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="26" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C61" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="26" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C62" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="26" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C63" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="26" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C64" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="26" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C65" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C66" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="26" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C67" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="19" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="22"/>
-    </row>
-    <row r="62" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="24" t="s">
+      <c r="C69" s="22"/>
+    </row>
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C70" s="25" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
-    <sortCondition ref="B2:B15" customList="Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
+    <sortCondition ref="B2:B23" customList="Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B53" location="'DD-Location Det. and Track'!A1" display="Location Determination and Tracking" xr:uid="{49393598-8E01-4F0C-98F8-F3556F9E94F1}"/>
-    <hyperlink ref="B54" location="'DD-Object Detection'!A1" display="Object Detection " xr:uid="{0D9A1E34-F98F-46C4-B585-AD02F0786C59}"/>
-    <hyperlink ref="B55" location="'DD-Object Manipulation'!A1" display="Object Manipulation" xr:uid="{B61D4DCF-F653-4940-B85B-EF5BCC47C04E}"/>
-    <hyperlink ref="B56" location="'DD-Locomotion'!A1" display="Locomotion" xr:uid="{91B0B86C-16DD-45B4-BC58-57092451A29E}"/>
-    <hyperlink ref="B57" location="'DD-Fireworks Display'!A1" display="Fireworks Display" xr:uid="{945F8B7E-50D4-4ED3-AD91-EDAC8A0877A4}"/>
-    <hyperlink ref="B59" location="'DD-Power'!A1" display="Power" xr:uid="{F1ABB304-7803-4CCA-AA12-2E46549E173D}"/>
-    <hyperlink ref="B58" location="'DD-Animal Feeding'!A1" display="Animal Feeding" xr:uid="{F2F8E6E8-8B2B-4009-89DB-8B26A3DD7EFB}"/>
-    <hyperlink ref="B52" location="'DD-Chassis'!A1" display="Chassis" xr:uid="{F0F55870-F599-4F19-ADF6-BC6EBBD97A65}"/>
+    <hyperlink ref="B61" location="'DD-Location Det. and Track'!A1" display="Location Determination and Tracking" xr:uid="{49393598-8E01-4F0C-98F8-F3556F9E94F1}"/>
+    <hyperlink ref="B62" location="'DD-Object Detection'!A1" display="Object Detection " xr:uid="{0D9A1E34-F98F-46C4-B585-AD02F0786C59}"/>
+    <hyperlink ref="B63" location="'DD-Object Manipulation'!A1" display="Object Manipulation" xr:uid="{B61D4DCF-F653-4940-B85B-EF5BCC47C04E}"/>
+    <hyperlink ref="B64" location="'DD-Locomotion'!A1" display="Locomotion" xr:uid="{91B0B86C-16DD-45B4-BC58-57092451A29E}"/>
+    <hyperlink ref="B65" location="'DD-Fireworks Display'!A1" display="Fireworks Display" xr:uid="{945F8B7E-50D4-4ED3-AD91-EDAC8A0877A4}"/>
+    <hyperlink ref="B67" location="'DD-Power'!A1" display="Power" xr:uid="{F1ABB304-7803-4CCA-AA12-2E46549E173D}"/>
+    <hyperlink ref="B66" location="'DD-Animal Feeding'!A1" display="Animal Feeding" xr:uid="{F2F8E6E8-8B2B-4009-89DB-8B26A3DD7EFB}"/>
+    <hyperlink ref="B60" location="'DD-Chassis'!A1" display="Chassis" xr:uid="{F0F55870-F599-4F19-ADF6-BC6EBBD97A65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/CapstoneTimeline.xlsx
+++ b/Documentation/CapstoneTimeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke1\Documents\GitHub\CapstoneRepo\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60DC155-5E84-4E79-9412-4B92D238573C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85053780-B22A-483E-8C25-73740BCAA4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7312806-6A61-4E07-9F80-D4889DE395B5}"/>
   </bookViews>
@@ -31,7 +31,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>Team Formation</t>
   </si>
@@ -83,9 +88,6 @@
     <t>Detail Design Complete</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordering  Complete </t>
-  </si>
-  <si>
     <t>Non-trivial fully contructed reletively functional prototype</t>
   </si>
   <si>
@@ -122,9 +124,6 @@
     <t>Ordering</t>
   </si>
   <si>
-    <t>Programming</t>
-  </si>
-  <si>
     <t>Build</t>
   </si>
   <si>
@@ -137,12 +136,6 @@
     <t>Member Assignment</t>
   </si>
   <si>
-    <t>Enitire Team</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>Gantt Chart</t>
   </si>
   <si>
@@ -191,9 +184,6 @@
     <t>Vision System</t>
   </si>
   <si>
-    <t>Microbot</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -206,9 +196,6 @@
     <t>Citations</t>
   </si>
   <si>
-    <t>Mark Beech, Luke Mcgill, Nathan Gardner</t>
-  </si>
-  <si>
     <t>Luke Mcgill</t>
   </si>
   <si>
@@ -224,12 +211,6 @@
     <t>Chassis</t>
   </si>
   <si>
-    <t>Location Determination and Tracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object Detection </t>
-  </si>
-  <si>
     <t>Fireworks Display</t>
   </si>
   <si>
@@ -251,9 +232,6 @@
     <t>Fatima Al-heji, Nathan Gardner, Luke Mcgill</t>
   </si>
   <si>
-    <t>Fatima Al-heji, Nathan Gardner, Mark Beech</t>
-  </si>
-  <si>
     <t>DETAILED WORK BREAKDOWN</t>
   </si>
   <si>
@@ -263,22 +241,103 @@
     <t>\</t>
   </si>
   <si>
-    <t>Locomotion Subsystem: motor driver</t>
-  </si>
-  <si>
-    <t>Locomotion Subsystem: motor</t>
-  </si>
-  <si>
-    <t>Locomotion Subsystem: wheels</t>
-  </si>
-  <si>
-    <t>Controller Subsystem:</t>
-  </si>
-  <si>
-    <t>Power Subsystem:</t>
-  </si>
-  <si>
-    <t>Vision Subsystem:</t>
+    <t>Nathan Gardner, Madison Kelly</t>
+  </si>
+  <si>
+    <t>Mechanical Team, Luke McGill</t>
+  </si>
+  <si>
+    <t>Mechanical Team, Mark Beech, Madison Kelly</t>
+  </si>
+  <si>
+    <t>Consumption of Objects</t>
+  </si>
+  <si>
+    <t>Object Storage</t>
+  </si>
+  <si>
+    <t>Object Delivery</t>
+  </si>
+  <si>
+    <t>Mechanical Team, Mark Beech</t>
+  </si>
+  <si>
+    <t>Microcontroller System</t>
+  </si>
+  <si>
+    <t>Madison Kelly, Nathan Gardner</t>
+  </si>
+  <si>
+    <t>Mark Beech, Luke Mcgill, Nathan Gardner, Madison Kelly</t>
+  </si>
+  <si>
+    <t>Mark Beech, Madison Kelly</t>
+  </si>
+  <si>
+    <t>Vision Subsystem: Signoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Subsystem: Signoff </t>
+  </si>
+  <si>
+    <t>Object Consumption: Detailed Design and Analytical Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Consumption: Signoff </t>
+  </si>
+  <si>
+    <t>Vision Subsystem: Controller, Detailed Design and Analytical Testing</t>
+  </si>
+  <si>
+    <t>Vision Subsystem: Sensor system, Detailed Design and Analytical Testing</t>
+  </si>
+  <si>
+    <t>Power Subsystem: Detailed Design and Analytical Testing (LTSpice)</t>
+  </si>
+  <si>
+    <t>Fatima Al-Heji</t>
+  </si>
+  <si>
+    <t>Controller Subsystem: Signoff</t>
+  </si>
+  <si>
+    <t>Controller Subsystem: Detailed Design and Analytical Testing</t>
+  </si>
+  <si>
+    <t>Vision Subsystem: Programming</t>
+  </si>
+  <si>
+    <t>Controller Subsystem: Programming</t>
+  </si>
+  <si>
+    <t>Locomotion Subsystem: Motor Drivers, Detail Design and Testing</t>
+  </si>
+  <si>
+    <t>Luke McGill</t>
+  </si>
+  <si>
+    <t>Locomotion Subsystem: Motors, Detail Design and Analytical Testing</t>
+  </si>
+  <si>
+    <t>Locomotion Subsystem: Mechanum Wheels, Detail Design and Testing</t>
+  </si>
+  <si>
+    <t>Locomotion Subsystem: Signoff</t>
+  </si>
+  <si>
+    <t>All Team</t>
+  </si>
+  <si>
+    <t>All Team (done)</t>
+  </si>
+  <si>
+    <t>Object Storage: Sorting, Detail Design and Analytical Testing</t>
+  </si>
+  <si>
+    <t>Object Storage: Storing, Detail Design and Analytical Testing</t>
+  </si>
+  <si>
+    <t>Object Storage: Signoff</t>
   </si>
 </sst>
 </file>
@@ -444,22 +503,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -586,9 +637,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$A$3:$A$20</c:f>
+              <c:f>Main!$A$3:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -599,42 +650,75 @@
                   <c:v>Conceptual Design and Planning </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Locomotion Subsystem: motor driver</c:v>
+                  <c:v>Object Consumption: Detailed Design and Analytical Testing</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Locomotion Subsystem: motor</c:v>
+                  <c:v>Vision Subsystem: Controller, Detailed Design and Analytical Testing</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Locomotion Subsystem: wheels</c:v>
+                  <c:v>Object Consumption: Signoff </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Controller Subsystem:</c:v>
+                  <c:v>Vision Subsystem: Sensor system, Detailed Design and Analytical Testing</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Power Subsystem:</c:v>
+                  <c:v>Vision Subsystem: Signoff</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Object Storage: Sorting, Detail Design and Analytical Testing</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Object Storage: Storing, Detail Design and Analytical Testing</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Vision Subsystem:</c:v>
+                  <c:v>Object Storage: Signoff</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Controller Subsystem: Detailed Design and Analytical Testing</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Controller Subsystem: Signoff</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Locomotion Subsystem: Motor Drivers, Detail Design and Testing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Locomotion Subsystem: Motors, Detail Design and Analytical Testing</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Locomotion Subsystem: Mechanum Wheels, Detail Design and Testing</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Locomotion Subsystem: Signoff</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Power Subsystem: Detailed Design and Analytical Testing (LTSpice)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Power Subsystem: Signoff </c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Detail Design and Planning</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>Signoff</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>Ordering</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Programming</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
+                  <c:v>Vision Subsystem: Programming</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Controller Subsystem: Programming</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Build</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
                   <c:v>Experimentation</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>Documentation, Poster, Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -642,10 +726,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$B$3:$B$20</c:f>
+              <c:f>Main!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44815</c:v>
                 </c:pt>
@@ -656,33 +740,75 @@
                   <c:v>44829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44860</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44860</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44860</c:v>
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44888</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44945</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44948</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>44843</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>44847</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44857</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44881</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44896</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44953</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44953</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>44986</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>45007</c:v>
                 </c:pt>
               </c:numCache>
@@ -773,9 +899,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$A$3:$A$20</c:f>
+              <c:f>Main!$A$3:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -786,42 +912,75 @@
                   <c:v>Conceptual Design and Planning </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Locomotion Subsystem: motor driver</c:v>
+                  <c:v>Object Consumption: Detailed Design and Analytical Testing</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Locomotion Subsystem: motor</c:v>
+                  <c:v>Vision Subsystem: Controller, Detailed Design and Analytical Testing</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Locomotion Subsystem: wheels</c:v>
+                  <c:v>Object Consumption: Signoff </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Controller Subsystem:</c:v>
+                  <c:v>Vision Subsystem: Sensor system, Detailed Design and Analytical Testing</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Power Subsystem:</c:v>
+                  <c:v>Vision Subsystem: Signoff</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Object Storage: Sorting, Detail Design and Analytical Testing</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Object Storage: Storing, Detail Design and Analytical Testing</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Vision Subsystem:</c:v>
+                  <c:v>Object Storage: Signoff</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Controller Subsystem: Detailed Design and Analytical Testing</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Controller Subsystem: Signoff</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Locomotion Subsystem: Motor Drivers, Detail Design and Testing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Locomotion Subsystem: Motors, Detail Design and Analytical Testing</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Locomotion Subsystem: Mechanum Wheels, Detail Design and Testing</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Locomotion Subsystem: Signoff</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Power Subsystem: Detailed Design and Analytical Testing (LTSpice)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Power Subsystem: Signoff </c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Detail Design and Planning</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>Signoff</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>Ordering</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Programming</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
+                  <c:v>Vision Subsystem: Programming</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Controller Subsystem: Programming</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Build</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
                   <c:v>Experimentation</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>Documentation, Poster, Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -829,10 +988,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$3:$D$20</c:f>
+              <c:f>Main!$D$3:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -842,25 +1001,76 @@
                 <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>125</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
@@ -890,10 +1100,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Main!$E$3:$E$20</c:f>
+              <c:f>Main!$E$3:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -901,6 +1111,78 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1674,7 +1956,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>130951</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3139225" cy="1500732"/>
@@ -1770,10 +2052,10 @@
       <xdr:rowOff>161693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>679250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>61951</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>199293</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2098,15 +2380,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC09B1FA-CECC-4035-B171-7CDD1AF55ECD}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.21875" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -2118,31 +2401,31 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="11"/>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
+      <c r="A2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="6">
         <v>44797</v>
       </c>
     </row>
@@ -2158,19 +2441,19 @@
         <v>44829</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D29" si="0">C3-B3</f>
         <v>14</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="6">
         <v>44802</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2180,23 +2463,23 @@
         <f>DATE(YEAR(C4),MONTH(C4),DAY(C4)-7)</f>
         <v>44839</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>44846</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="6">
         <v>44839</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2215,581 +2498,851 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="6">
         <v>44850</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1">
-        <v>44860</v>
+        <v>44865</v>
       </c>
       <c r="C6" s="1">
-        <v>44838</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="13">
-        <v>44853</v>
-      </c>
+        <v>44869</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
-        <v>44860</v>
+        <v>44865</v>
       </c>
       <c r="C7" s="1">
-        <v>44838</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="13">
-        <v>44875</v>
-      </c>
+        <v>44872</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1">
-        <v>44860</v>
+        <v>44870</v>
       </c>
       <c r="C8" s="1">
-        <v>44838</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="13">
-        <v>44882</v>
-      </c>
+        <v>44874</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="13">
-        <v>44889</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44875</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44882</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="G10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="13">
-        <v>44906</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44883</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44890</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="13">
-        <v>44906</v>
-      </c>
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44875</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44882</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="G12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12">
-        <v>44948</v>
-      </c>
-      <c r="J12" s="6"/>
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44882</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44887</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6">
+        <v>44853</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="G13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="12">
-        <v>44955</v>
-      </c>
-      <c r="J13" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44888</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44904</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6">
+        <v>44875</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1">
+        <v>44904</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44911</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44911</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44942</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44904</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44911</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44938</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44945</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44945</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44948</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44948</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44952</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="6">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44938</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44945</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44946</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44952</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="6">
+        <v>44948</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <f>C5</f>
         <v>44843</v>
       </c>
-      <c r="C14" s="5">
-        <v>44948</v>
-      </c>
-      <c r="D14">
+      <c r="C22" s="3">
+        <v>44952</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="G14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44870</v>
+      </c>
+      <c r="C23" s="3">
+        <f>C22</f>
+        <v>44952</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H23" s="6">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44870</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44952</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="6">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44953</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45006</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44953</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45006</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44938</v>
+      </c>
+      <c r="C27" s="3">
+        <f>H22</f>
         <v>44986</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1">
-        <f>DATE(YEAR(B14),MONTH(B14),DAY(B14)+4)</f>
-        <v>44847</v>
-      </c>
-      <c r="C15" s="5">
-        <f>C14</f>
-        <v>44948</v>
-      </c>
-      <c r="D15">
+      <c r="D27">
         <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="12">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <f>H22</f>
+        <v>44986</v>
+      </c>
+      <c r="C28" s="3">
+        <f>H23</f>
         <v>45007</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1">
-        <f>DATE(YEAR(B14), MONTH(B14), DAY(B14)+14)</f>
-        <v>44857</v>
-      </c>
-      <c r="C16" s="5">
-        <f>H13</f>
-        <v>44955</v>
-      </c>
-      <c r="D16">
+      <c r="D28">
         <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="G16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="12">
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <f>H23</f>
+        <v>45007</v>
+      </c>
+      <c r="C29" s="3">
+        <f>H24</f>
         <v>45044</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1">
-        <f>DATE(YEAR(B14),MONTH(B14),DAY(B14)+38)</f>
-        <v>44881</v>
-      </c>
-      <c r="C17" s="5">
-        <v>45006</v>
-      </c>
-      <c r="D17">
+      <c r="D29">
         <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="8">
-        <f>DATE(YEAR(H9),MONTH(H9),DAY(H9)+7)</f>
-        <v>44896</v>
-      </c>
-      <c r="C18" s="5">
-        <f>H14</f>
-        <v>44986</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="5">
-        <f>H14</f>
-        <v>44986</v>
-      </c>
-      <c r="C19" s="5">
-        <f>H15</f>
-        <v>45007</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D20" si="1">C19-B19</f>
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="C67" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
-        <f>H15</f>
-        <v>45007</v>
-      </c>
-      <c r="C20" s="5">
-        <f>H16</f>
-        <v>45044</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="22"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="22"/>
-    </row>
-    <row r="56" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="22"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="26" t="s">
+      <c r="C81" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="22"/>
-    </row>
-    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
-    <sortCondition ref="B2:B23" customList="Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+    <sortCondition ref="B2:B32" customList="Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B61" location="'DD-Location Det. and Track'!A1" display="Location Determination and Tracking" xr:uid="{49393598-8E01-4F0C-98F8-F3556F9E94F1}"/>
-    <hyperlink ref="B62" location="'DD-Object Detection'!A1" display="Object Detection " xr:uid="{0D9A1E34-F98F-46C4-B585-AD02F0786C59}"/>
-    <hyperlink ref="B63" location="'DD-Object Manipulation'!A1" display="Object Manipulation" xr:uid="{B61D4DCF-F653-4940-B85B-EF5BCC47C04E}"/>
-    <hyperlink ref="B64" location="'DD-Locomotion'!A1" display="Locomotion" xr:uid="{91B0B86C-16DD-45B4-BC58-57092451A29E}"/>
-    <hyperlink ref="B65" location="'DD-Fireworks Display'!A1" display="Fireworks Display" xr:uid="{945F8B7E-50D4-4ED3-AD91-EDAC8A0877A4}"/>
-    <hyperlink ref="B67" location="'DD-Power'!A1" display="Power" xr:uid="{F1ABB304-7803-4CCA-AA12-2E46549E173D}"/>
-    <hyperlink ref="B66" location="'DD-Animal Feeding'!A1" display="Animal Feeding" xr:uid="{F2F8E6E8-8B2B-4009-89DB-8B26A3DD7EFB}"/>
-    <hyperlink ref="B60" location="'DD-Chassis'!A1" display="Chassis" xr:uid="{F0F55870-F599-4F19-ADF6-BC6EBBD97A65}"/>
+    <hyperlink ref="B71" location="'DD-Location Det. and Track'!A1" display="Location Determination and Tracking" xr:uid="{49393598-8E01-4F0C-98F8-F3556F9E94F1}"/>
+    <hyperlink ref="B73" location="'DD-Object Detection'!A1" display="Object Detection " xr:uid="{0D9A1E34-F98F-46C4-B585-AD02F0786C59}"/>
+    <hyperlink ref="B74" location="'DD-Object Manipulation'!A1" display="Object Manipulation" xr:uid="{B61D4DCF-F653-4940-B85B-EF5BCC47C04E}"/>
+    <hyperlink ref="B75" location="'DD-Locomotion'!A1" display="Locomotion" xr:uid="{91B0B86C-16DD-45B4-BC58-57092451A29E}"/>
+    <hyperlink ref="B76" location="'DD-Fireworks Display'!A1" display="Fireworks Display" xr:uid="{945F8B7E-50D4-4ED3-AD91-EDAC8A0877A4}"/>
+    <hyperlink ref="B78" location="'DD-Power'!A1" display="Power" xr:uid="{F1ABB304-7803-4CCA-AA12-2E46549E173D}"/>
+    <hyperlink ref="B77" location="'DD-Animal Feeding'!A1" display="Animal Feeding" xr:uid="{F2F8E6E8-8B2B-4009-89DB-8B26A3DD7EFB}"/>
+    <hyperlink ref="B69" location="'DD-Chassis'!A1" display="Chassis" xr:uid="{F0F55870-F599-4F19-ADF6-BC6EBBD97A65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2855,7 +3408,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/CapstoneTimeline.xlsx
+++ b/Documentation/CapstoneTimeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85053780-B22A-483E-8C25-73740BCAA4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E9A7C-4677-4CDA-9C07-A296CC13FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7312806-6A61-4E07-9F80-D4889DE395B5}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Team Formation</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t>Object Storage: Signoff</t>
+  </si>
+  <si>
+    <t>Fireworks Display: Detail Design and Analytical Testing</t>
+  </si>
+  <si>
+    <t>Fireworks Display: Signoff</t>
   </si>
 </sst>
 </file>
@@ -637,9 +643,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$A$3:$A$29</c:f>
+              <c:f>Main!$A$3:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -692,33 +698,39 @@
                   <c:v>Locomotion Subsystem: Signoff</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Fireworks Display: Detail Design and Analytical Testing</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Fireworks Display: Signoff</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Power Subsystem: Detailed Design and Analytical Testing (LTSpice)</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>Power Subsystem: Signoff </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>Detail Design and Planning</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>Signoff</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>Ordering</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>Vision Subsystem: Programming</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>Controller Subsystem: Programming</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>Build</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>Experimentation</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>Documentation, Poster, Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -726,10 +738,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$B$3:$B$29</c:f>
+              <c:f>Main!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44815</c:v>
                 </c:pt>
@@ -785,30 +797,36 @@
                   <c:v>44938</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>44945</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>44946</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>44843</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>44870</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>44870</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>44953</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>44953</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>44938</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>44986</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>45007</c:v>
                 </c:pt>
               </c:numCache>
@@ -899,9 +917,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$A$3:$A$29</c:f>
+              <c:f>Main!$A$3:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -954,33 +972,39 @@
                   <c:v>Locomotion Subsystem: Signoff</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Fireworks Display: Detail Design and Analytical Testing</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Fireworks Display: Signoff</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Power Subsystem: Detailed Design and Analytical Testing (LTSpice)</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>Power Subsystem: Signoff </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>Detail Design and Planning</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>Signoff</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>Ordering</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>Vision Subsystem: Programming</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>Controller Subsystem: Programming</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>Build</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>Experimentation</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>Documentation, Poster, Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -988,10 +1012,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$D$3:$D$29</c:f>
+              <c:f>Main!$D$3:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -1047,30 +1071,36 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
@@ -1100,10 +1130,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Main!$E$3:$E$29</c:f>
+              <c:f>Main!$E$3:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1183,6 +1213,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1956,7 +1992,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>130951</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3139225" cy="1500732"/>
@@ -2054,7 +2090,7 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>199293</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2380,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC09B1FA-CECC-4035-B171-7CDD1AF55ECD}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2441,7 +2477,7 @@
         <v>44829</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D29" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D31" si="0">C3-B3</f>
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -2820,7 +2856,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1">
         <v>44938</v>
@@ -2833,220 +2869,252 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1">
-        <v>44946</v>
+        <v>44945</v>
       </c>
       <c r="C21" s="1">
         <v>44952</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="6">
-        <v>44948</v>
-      </c>
-      <c r="J21" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44938</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44945</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44946</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44952</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="6">
+        <v>44948</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B24" s="1">
         <f>C5</f>
         <v>44843</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C24" s="3">
         <v>44952</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H24" s="6">
         <v>44986</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B25" s="1">
         <v>44870</v>
       </c>
-      <c r="C23" s="3">
-        <f>C22</f>
+      <c r="C25" s="3">
+        <f>C24</f>
         <v>44952</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H25" s="6">
         <v>45007</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B26" s="1">
         <v>44870</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C26" s="3">
         <v>44952</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H26" s="6">
         <v>45044</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B27" s="1">
         <v>44953</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C27" s="3">
         <v>45006</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B28" s="1">
         <v>44953</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C28" s="3">
         <v>45006</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B29" s="1">
         <v>44938</v>
       </c>
-      <c r="C27" s="3">
-        <f>H22</f>
+      <c r="C29" s="3">
+        <f>H24</f>
         <v>44986</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <f>H22</f>
+      <c r="B30" s="3">
+        <f>H24</f>
         <v>44986</v>
       </c>
-      <c r="C28" s="3">
-        <f>H23</f>
+      <c r="C30" s="3">
+        <f>H25</f>
         <v>45007</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <f>H23</f>
+      <c r="B31" s="3">
+        <f>H25</f>
         <v>45007</v>
       </c>
-      <c r="C29" s="3">
-        <f>H24</f>
+      <c r="C31" s="3">
+        <f>H26</f>
         <v>45044</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -3061,127 +3129,119 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
+    <row r="46" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="11" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="11" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="14"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="15" t="s">
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>32</v>
@@ -3189,92 +3249,92 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-    </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="14"/>
-    </row>
-    <row r="65" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="16" t="s">
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C67" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="9" t="s">
+    <row r="68" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="11" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="14"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="C70" s="14"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="18" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>67</v>
@@ -3282,67 +3342,83 @@
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="18" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="18" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="11" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="14"/>
-    </row>
-    <row r="81" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="16" t="s">
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C83" s="17" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
-    <sortCondition ref="B2:B32" customList="Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
+    <sortCondition ref="B2:B34" customList="Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B71" location="'DD-Location Det. and Track'!A1" display="Location Determination and Tracking" xr:uid="{49393598-8E01-4F0C-98F8-F3556F9E94F1}"/>
-    <hyperlink ref="B73" location="'DD-Object Detection'!A1" display="Object Detection " xr:uid="{0D9A1E34-F98F-46C4-B585-AD02F0786C59}"/>
-    <hyperlink ref="B74" location="'DD-Object Manipulation'!A1" display="Object Manipulation" xr:uid="{B61D4DCF-F653-4940-B85B-EF5BCC47C04E}"/>
-    <hyperlink ref="B75" location="'DD-Locomotion'!A1" display="Locomotion" xr:uid="{91B0B86C-16DD-45B4-BC58-57092451A29E}"/>
-    <hyperlink ref="B76" location="'DD-Fireworks Display'!A1" display="Fireworks Display" xr:uid="{945F8B7E-50D4-4ED3-AD91-EDAC8A0877A4}"/>
-    <hyperlink ref="B78" location="'DD-Power'!A1" display="Power" xr:uid="{F1ABB304-7803-4CCA-AA12-2E46549E173D}"/>
-    <hyperlink ref="B77" location="'DD-Animal Feeding'!A1" display="Animal Feeding" xr:uid="{F2F8E6E8-8B2B-4009-89DB-8B26A3DD7EFB}"/>
-    <hyperlink ref="B69" location="'DD-Chassis'!A1" display="Chassis" xr:uid="{F0F55870-F599-4F19-ADF6-BC6EBBD97A65}"/>
+    <hyperlink ref="B73" location="'DD-Location Det. and Track'!A1" display="Location Determination and Tracking" xr:uid="{49393598-8E01-4F0C-98F8-F3556F9E94F1}"/>
+    <hyperlink ref="B75" location="'DD-Object Detection'!A1" display="Object Detection " xr:uid="{0D9A1E34-F98F-46C4-B585-AD02F0786C59}"/>
+    <hyperlink ref="B76" location="'DD-Object Manipulation'!A1" display="Object Manipulation" xr:uid="{B61D4DCF-F653-4940-B85B-EF5BCC47C04E}"/>
+    <hyperlink ref="B77" location="'DD-Locomotion'!A1" display="Locomotion" xr:uid="{91B0B86C-16DD-45B4-BC58-57092451A29E}"/>
+    <hyperlink ref="B78" location="'DD-Fireworks Display'!A1" display="Fireworks Display" xr:uid="{945F8B7E-50D4-4ED3-AD91-EDAC8A0877A4}"/>
+    <hyperlink ref="B80" location="'DD-Power'!A1" display="Power" xr:uid="{F1ABB304-7803-4CCA-AA12-2E46549E173D}"/>
+    <hyperlink ref="B79" location="'DD-Animal Feeding'!A1" display="Animal Feeding" xr:uid="{F2F8E6E8-8B2B-4009-89DB-8B26A3DD7EFB}"/>
+    <hyperlink ref="B71" location="'DD-Chassis'!A1" display="Chassis" xr:uid="{F0F55870-F599-4F19-ADF6-BC6EBBD97A65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
